--- a/i18n/excel_from_translation/ISIP.xlsx
+++ b/i18n/excel_from_translation/ISIP.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26216"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="61" documentId="11_8F35866A5602078EC975846137E6CD0A260A626A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{715089F1-5CD6-45F3-AE6D-175944247DA7}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="11_8F35866A5602078EC975846137E6CD0A260A626A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D9A8F65-29D3-418A-AD81-D09BC42A191F}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
   <si>
     <t>KEY</t>
   </si>
@@ -115,9 +115,15 @@
     <t>Naudodami oro sąlygomis pagrįstus kenkėjų ir ligų prognozių modelius galite apskaičiuoti ligų sukėlėjų paplitimą ir aukštos užsikrėtimo rizikos laikotarpius. Užkrėstumo kontrolė ir augalų apsaugos tarnybų rekomendacijos taip pat informuoja apie esamą padėtį jūsų regione. Be to, yra programų, skirtų augalų išsivystymui apskaičiuoti ir tinkamiausiai žemės dirbimo sistemai parinkti.</t>
   </si>
   <si>
+    <t>Grâce aux modèles de prévisions météorologiques pour les ravageurs et les maladies, vous pouvez calculer l'occurrence des agents pathogènes et les périodes de forte pression d'infestation. Les contrôles d'infestation et les recommandations des services de protection des végétaux vous informent également de la situation actuelle dans votre région. En outre, des programmes sont disponibles pour calculer le développement des plantes et choisir le système de travail du sol le plus adapté.</t>
+  </si>
+  <si>
     <t>Grazie ai modelli di previsione per parassiti e malattie basati sulle condizioni meteorologiche, è possibile calcolare la presenza di agenti patogeni e i periodi di alta pressione infestante. I controlli delle infestazioni e le raccomandazioni dei servizi fitosanitari vi informano anche sulla situazione attuale della vostra regione. Sono inoltre disponibili programmi per calcolare lo sviluppo delle piante e scegliere il sistema di lavorazione del terreno più adatto.</t>
   </si>
   <si>
+    <t>Με τα μοντέλα πρόβλεψης παρασίτων και ασθενειών που βασίζονται στις καιρικές συνθήκες, μπορείτε να υπολογίσετε την εμφάνιση παθογόνων μικροοργανισμών και περιόδους υψηλής πίεσης προσβολής. Οι έλεγχοι προσβολών και οι συστάσεις από τις υπηρεσίες φυτοπροστασίας σας ενημερώνουν επίσης για την τρέχουσα κατάσταση στην περιοχή σας. Επιπλέον, διατίθενται προγράμματα για τον υπολογισμό της ανάπτυξης των φυτών και την επιλογή του καταλληλότερου συστήματος κατεργασίας εδάφους.</t>
+  </si>
+  <si>
     <t>ISIP.1_0.models.siggetreide.name</t>
   </si>
   <si>
@@ -148,9 +154,15 @@
     <t>ISIP (tik Vokiškai)</t>
   </si>
   <si>
+    <t>ISIP (Allemagne uniquement)</t>
+  </si>
+  <si>
     <t>ISIP (solo Germania)</t>
   </si>
   <si>
+    <t>ISIP (μόνο στη Γερμανία)</t>
+  </si>
+  <si>
     <t>ISIP.1_0.models.siggetreide.purpose</t>
   </si>
   <si>
@@ -181,7 +193,13 @@
     <t>Apskaičiuoti svarbiausių lapų ligų paros užsikrėtimo sąlygas žieminiuose javuose ir vasariniuose miežiuose.</t>
   </si>
   <si>
+    <t>Calculer les conditions d'infection quotidiennes pour les maladies foliaires les plus importantes des céréales d'hiver et de l'orge de printemps.</t>
+  </si>
+  <si>
     <t>Per calcolare le condizioni di infezione giornaliera per le più importanti malattie fogliari dei cereali invernali e dell'orzo estivo.</t>
+  </si>
+  <si>
+    <t>Υπολογισμός των ημερήσιων συνθηκών μόλυνσης για τις σημαντικότερες ασθένειες των φύλλων των χειμερινών σιτηρών και του θερινού κριθαριού.</t>
   </si>
   <si>
     <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                         </t>
@@ -191,7 +209,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +244,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -287,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -298,7 +323,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,7 +666,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -714,7 +740,13 @@
       <c r="I2" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="K2" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="L2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -728,13 +760,15 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="4" width="9.140625" style="5"/>
     <col min="5" max="5" width="9.140625" style="3"/>
+    <col min="11" max="11" width="30.85546875" customWidth="1"/>
+    <col min="13" max="13" width="60.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -774,7 +808,7 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
       <c r="N1" t="s">
@@ -818,83 +852,101 @@
       <c r="J2" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="K2" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="L2" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" ht="15.75">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" ht="15.75">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>50</v>
+        <v>55</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="I9" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -903,19 +955,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f0f33890-2782-435d-9951-89eaf76ec08c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="49b2234f-12e0-4bdf-b627-3d078507bec9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -924,7 +963,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CE6F8D6BD046F944849C04732F5FA09C" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="985394bff33c465c59c1b6ffc7f2b18c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f0f33890-2782-435d-9951-89eaf76ec08c" xmlns:ns3="49b2234f-12e0-4bdf-b627-3d078507bec9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e6e7ee76b1c64bbcff38e34ea77f7800" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1184,14 +1223,27 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f0f33890-2782-435d-9951-89eaf76ec08c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="49b2234f-12e0-4bdf-b627-3d078507bec9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{665BBF7D-2892-490A-8CD4-0BDD81D6AD43}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F112F59D-F407-4F68-8352-9542A3A61427}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F112F59D-F407-4F68-8352-9542A3A61427}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E58E0149-7B03-41E2-8825-59A4E72115B6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E58E0149-7B03-41E2-8825-59A4E72115B6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{665BBF7D-2892-490A-8CD4-0BDD81D6AD43}"/>
 </file>